--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0184 - Penyelia Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0184 - Penyelia Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2435AE6-E7F1-4FCD-93DC-24864141D999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36D5237-5ED8-4EAE-9B41-6950AA4F72E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -235,9 +235,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,141 +591,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="255" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:26" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="12">
         <v>38262</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9">
         <v>39798</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="9">
         <v>2022</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="10" t="str">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="14" t="str">
         <f>"Pembuktian Sales yang ada pada User " &amp; F2</f>
         <v>Pembuktian Sales yang ada pada User 38262</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="9" t="s">
         <v>37</v>
       </c>
     </row>
